--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_sug.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace_sug.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>Supplier</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Delivery Date Arrival</t>
-  </si>
-  <si>
-    <t>Delivery Date Arrival (if departure unknown)</t>
   </si>
   <si>
     <t>Recipient</t>
@@ -2005,8 +2002,146 @@
     <xf numFmtId="49" fontId="9" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2015,36 +2150,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2079,125 +2195,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2667,7 +2664,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="66" t="s">
         <v>7</v>
@@ -2685,7 +2682,7 @@
         <v>12</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
@@ -2746,13 +2743,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="107"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
@@ -2767,7 +2764,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="93" t="s">
         <v>19</v>
@@ -2819,20 +2816,20 @@
       <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:22" s="39" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
       <c r="M7" s="80"/>
       <c r="N7" s="100" t="s">
         <v>28</v>
@@ -2847,45 +2844,45 @@
       <c r="V7" s="62"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="139" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="147" t="s">
+      <c r="A8" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="148"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="146" t="s">
+      <c r="E8" s="136"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="116"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="145" t="s">
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="131"/>
+      <c r="L8" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="112"/>
-      <c r="L8" s="150" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="117" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="152"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="153"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="153"/>
-      <c r="U8" s="153"/>
-      <c r="V8" s="159"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="115"/>
     </row>
     <row r="9" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="142"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="135"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="79" t="s">
         <v>18</v>
       </c>
@@ -2910,22 +2907,22 @@
       <c r="K9" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="151"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="154"/>
-      <c r="P9" s="154"/>
-      <c r="Q9" s="154"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="154"/>
-      <c r="T9" s="154"/>
-      <c r="U9" s="154"/>
-      <c r="V9" s="160"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="116"/>
     </row>
     <row r="10" spans="1:22" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="133"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="135"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="81"/>
       <c r="E10" s="82"/>
       <c r="F10" s="82"/>
@@ -2962,14 +2959,14 @@
       <c r="M11" s="86"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="136"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="120"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
@@ -2990,66 +2987,66 @@
       <c r="V12" s="37"/>
     </row>
     <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="129" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="127" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="121" t="s">
+      <c r="A13" s="166" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="164" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="165"/>
+      <c r="D13" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="123"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="160"/>
       <c r="M13" s="55"/>
-      <c r="N13" s="155" t="s">
+      <c r="N13" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="157" t="s">
+      <c r="O13" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="157" t="s">
+      <c r="P13" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="143" t="s">
+      <c r="Q13" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="161"/>
-      <c r="S13" s="161"/>
-      <c r="T13" s="163"/>
-      <c r="U13" s="153"/>
-      <c r="V13" s="164"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="113"/>
     </row>
     <row r="14" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="130"/>
+      <c r="A14" s="167"/>
       <c r="B14" s="87" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="163"/>
       <c r="M14" s="55"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="158"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="162"/>
-      <c r="T14" s="162"/>
-      <c r="U14" s="154"/>
-      <c r="V14" s="165"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="114"/>
     </row>
     <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="89"/>
       <c r="B15" s="88"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="135"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="126"/>
       <c r="M15" s="20"/>
       <c r="N15" s="95"/>
       <c r="O15" s="18"/>
@@ -3076,20 +3073,20 @@
       <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="149"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="149"/>
       <c r="M17" s="80"/>
       <c r="N17" s="102" t="s">
         <v>28</v>
@@ -3104,49 +3101,49 @@
       <c r="V17" s="42"/>
     </row>
     <row r="18" spans="1:22" s="43" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="119" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="131" t="s">
+      <c r="A18" s="156" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="113" t="s">
+      <c r="C18" s="152" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="116"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="115" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="116"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="113" t="s">
+      <c r="E18" s="133"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="133"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="154" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="134"/>
+      <c r="L18" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="114"/>
-      <c r="L18" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="117" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="108"/>
-      <c r="O18" s="166"/>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="166"/>
-      <c r="T18" s="166"/>
-      <c r="U18" s="166"/>
-      <c r="V18" s="168"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="106"/>
     </row>
     <row r="19" spans="1:22" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="120"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="111"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="153"/>
       <c r="D19" s="63" t="s">
         <v>18</v>
       </c>
@@ -3171,17 +3168,17 @@
       <c r="K19" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="112"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="167"/>
-      <c r="P19" s="167"/>
-      <c r="Q19" s="167"/>
-      <c r="R19" s="167"/>
-      <c r="S19" s="167"/>
-      <c r="T19" s="167"/>
-      <c r="U19" s="167"/>
-      <c r="V19" s="169"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="107"/>
     </row>
     <row r="20" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="44"/>
@@ -5253,24 +5250,22 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="D13:F14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A8:C9"/>
     <mergeCell ref="A10:C10"/>
@@ -5287,22 +5282,24 @@
     <mergeCell ref="P13:P14"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="D13:F14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5348,14 +5345,14 @@
       <c r="F1" s="175"/>
       <c r="G1" s="175"/>
       <c r="H1" s="174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="175"/>
       <c r="J1" s="170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K1" s="176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="49" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -11585,20 +11582,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="74" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11606,17 +11603,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
